--- a/biology/Botanique/Ulvaceae/Ulvaceae.xlsx
+++ b/biology/Botanique/Ulvaceae/Ulvaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ulvaceae sont une famille d'algues vertes de l'ordre des Ulvales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Ulva, issu de l'ancien nom latin de l'algue. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 mai 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 mai 2013) :
 Enteromorpha Link
 Gemina V.J.Chapman
 Letterstedtia Areschoug
@@ -554,13 +570,13 @@
 Ulva Linnaeus
 Ulvaria Ruprecht
 Umbraulva E.H.Bae &amp; I.K.Lee
-Selon ITIS      (6 mars 2021)[2] :
+Selon ITIS      (6 mars 2021) :
 Chloropelta
 Enteromorpha Link, 1820
 Percursaria Bory De St. Vincent. 1828
 Ulva Linnaeus, 1753
 Ulvaria F. J. Ruprecht, 1850
-Selon World Register of Marine Species                               (6 mars 2021)[3] :
+Selon World Register of Marine Species                               (6 mars 2021) :
 Chloropelta Tanner, 1980
 Gemina V.J.Chapman, 1952
 Letterstedtia Areschoug, 1850
